--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>82</v>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>90</v>
@@ -16594,7 +16594,7 @@
         <v>90</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5644,7 +5644,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>190</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>278</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>633</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>765</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>797</v>
       </c>
@@ -23906,7 +23906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>808</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>818</v>
       </c>
@@ -32556,12 +32556,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP241">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -996,7 +996,7 @@
     <t>CH ELM Extension: VCT Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the VCT Code.</t>
+    <t>This CH ELM extension enables to provide the VCT Code.</t>
   </si>
   <si>
     <t>Patient.name.extension:hivcode</t>
@@ -1012,7 +1012,7 @@
     <t>CH ELM Extension: HIV Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the HIV Code.</t>
+    <t>This CH ELM extension enables to provide the HIV Code.</t>
   </si>
   <si>
     <t>Patient.name.use</t>

--- a/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
+++ b/ig/ch-elm/StructureDefinition-ChElmPatientVCT.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
